--- a/Sprint_docs/Sprint44_docs/S45_US15 CG question analysis.xlsx
+++ b/Sprint_docs/Sprint44_docs/S45_US15 CG question analysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Sprint_docs\Sprint44_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitrepo\Qualisys\Sprint_docs\Sprint44_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="96">
   <si>
     <t>qstncore</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>Q18.</t>
+  </si>
+  <si>
+    <t>C 12M 2.0</t>
   </si>
 </sst>
 </file>
@@ -3046,7 +3049,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L325" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -4673,8 +4676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L325"/>
   <sheetViews>
-    <sheetView topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L325"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11654,17 +11657,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V557"/>
+  <dimension ref="A1:W557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E246" sqref="E246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -11676,10 +11679,12 @@
     <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11719,11 +11724,14 @@
       <c r="O1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>44121</v>
       </c>
@@ -11747,28 +11755,29 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="13">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13">
         <v>2</v>
       </c>
-      <c r="R2" t="str">
-        <f>VLOOKUP($E2&amp;"."&amp;F$1,S:V,4,FALSE)</f>
+      <c r="S2" t="str">
+        <f>VLOOKUP($E2&amp;"."&amp;F$1,T:W,4,FALSE)</f>
         <v>Q1.</v>
       </c>
-      <c r="S2" t="str">
-        <f>T2&amp;"."&amp;U2</f>
+      <c r="T2" t="str">
+        <f>U2&amp;"."&amp;V2</f>
         <v>50483.C 6M PCMH 2.0</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>50483</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>88</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>44122</v>
       </c>
@@ -11792,24 +11801,25 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="7">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7">
         <v>2</v>
       </c>
-      <c r="S3" t="str">
-        <f t="shared" ref="S3:S17" si="0">T3&amp;"."&amp;U3</f>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T17" si="0">U3&amp;"."&amp;V3</f>
         <v>50629.C 6M PCMH 2.0</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>50629</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>88</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>44123</v>
       </c>
@@ -11833,24 +11843,25 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="7">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7">
         <v>2</v>
       </c>
-      <c r="S4" t="str">
+      <c r="T4" t="str">
         <f t="shared" si="0"/>
         <v>50500.C 6M PCMH 2.0</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>50500</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>88</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>44124</v>
       </c>
@@ -11874,24 +11885,25 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="7">
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7">
         <v>2</v>
       </c>
-      <c r="S5" t="str">
+      <c r="T5" t="str">
         <f t="shared" si="0"/>
         <v>44121.A 12M 2.0</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>44121</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>79</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>44125</v>
       </c>
@@ -11915,24 +11927,25 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="7">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7">
         <v>2</v>
       </c>
-      <c r="S6" t="str">
+      <c r="T6" t="str">
         <f t="shared" si="0"/>
         <v>44121.A 12M PCMH 2.0</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>44121</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>80</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>44126</v>
       </c>
@@ -11956,24 +11969,25 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="7">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7">
         <v>2</v>
       </c>
-      <c r="S7" t="str">
+      <c r="T7" t="str">
         <f t="shared" si="0"/>
         <v>44127.A 12M PCMH 2.0</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>44127</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>80</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>44129</v>
       </c>
@@ -11997,24 +12011,25 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="7">
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7">
         <v>2</v>
       </c>
-      <c r="S8" t="str">
+      <c r="T8" t="str">
         <f t="shared" si="0"/>
         <v>50344.A 6M 2.0</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>50344</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>81</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>44130</v>
       </c>
@@ -12038,24 +12053,25 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="7">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7">
         <v>2</v>
       </c>
-      <c r="S9" t="str">
+      <c r="T9" t="str">
         <f t="shared" si="0"/>
         <v>50344.A 6M 3.0</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>50344</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>82</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>44139</v>
       </c>
@@ -12079,24 +12095,25 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7">
         <v>2</v>
       </c>
-      <c r="S10" t="str">
+      <c r="T10" t="str">
         <f t="shared" si="0"/>
         <v>50226.A 6M 3.0</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>50226</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>82</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>44140</v>
       </c>
@@ -12120,24 +12137,25 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="7">
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7">
         <v>2</v>
       </c>
-      <c r="S11" t="str">
+      <c r="T11" t="str">
         <f t="shared" si="0"/>
         <v>50344.A 6M PCMH 2.0</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>50344</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>83</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>44141</v>
       </c>
@@ -12161,24 +12179,25 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7">
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7">
         <v>2</v>
       </c>
-      <c r="S12" t="str">
+      <c r="T12" t="str">
         <f t="shared" si="0"/>
         <v>50541.A 6M PCMH 2.0</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>50541</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>83</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>44142</v>
       </c>
@@ -12202,24 +12221,25 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="7">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7">
         <v>2</v>
       </c>
-      <c r="S13" t="str">
+      <c r="T13" t="str">
         <f t="shared" si="0"/>
         <v>39113.A Visit 2.0</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>39113</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>84</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>44148</v>
       </c>
@@ -12243,24 +12263,25 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="7">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7">
         <v>2</v>
       </c>
-      <c r="S14" t="str">
+      <c r="T14" t="str">
         <f t="shared" si="0"/>
         <v>46265.C 12M PCMH 2.0</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>46265</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>85</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>44150</v>
       </c>
@@ -12284,24 +12305,25 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="7">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7">
         <v>2</v>
       </c>
-      <c r="S15" t="str">
+      <c r="T15" t="str">
         <f t="shared" si="0"/>
         <v>50483.C 6M 2.0</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>50483</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>86</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44152</v>
       </c>
@@ -12325,24 +12347,25 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="7">
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7">
         <v>2</v>
       </c>
-      <c r="S16" t="str">
+      <c r="T16" t="str">
         <f t="shared" si="0"/>
         <v>50500.C 6M 2.0</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>50500</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>86</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>44155</v>
       </c>
@@ -12366,24 +12389,25 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="7">
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7">
         <v>2</v>
       </c>
-      <c r="S17" t="str">
+      <c r="T17" t="str">
         <f t="shared" si="0"/>
         <v>50483.C 6M 3.0</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>50483</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>87</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>44157</v>
       </c>
@@ -12407,11 +12431,12 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="7">
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>44158</v>
       </c>
@@ -12435,11 +12460,12 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="7">
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44161</v>
       </c>
@@ -12463,11 +12489,12 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="7">
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>44162</v>
       </c>
@@ -12491,11 +12518,12 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7">
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>44168</v>
       </c>
@@ -12519,11 +12547,12 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7">
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>44169</v>
       </c>
@@ -12547,11 +12576,12 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="7">
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>44181</v>
       </c>
@@ -12575,11 +12605,12 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="7">
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>44201</v>
       </c>
@@ -12603,11 +12634,12 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="7">
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>44202</v>
       </c>
@@ -12631,11 +12663,12 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="7">
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>44203</v>
       </c>
@@ -12659,11 +12692,12 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="7">
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>44204</v>
       </c>
@@ -12687,11 +12721,12 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="7">
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>44226</v>
       </c>
@@ -12715,11 +12750,12 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="7">
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>44227</v>
       </c>
@@ -12743,11 +12779,12 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="7">
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>44228</v>
       </c>
@@ -12771,11 +12808,12 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="7">
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>44229</v>
       </c>
@@ -12799,11 +12837,12 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="7">
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -12827,11 +12866,12 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="7">
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -12855,11 +12895,12 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="7">
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -12883,11 +12924,12 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="7">
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -12911,11 +12953,12 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="7">
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -12939,11 +12982,12 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="7">
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -12967,11 +13011,12 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="7">
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>44234</v>
       </c>
@@ -12995,11 +13040,12 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="7">
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -13023,11 +13069,12 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="7">
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -13051,11 +13098,12 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="7">
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -13079,11 +13127,12 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="7">
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -13107,11 +13156,12 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="7">
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -13135,11 +13185,12 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="7">
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44121</v>
       </c>
@@ -13161,15 +13212,16 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="7">
-        <v>1</v>
-      </c>
-      <c r="R45" t="str">
-        <f>VLOOKUP($E45&amp;"."&amp;G$1,S:V,4,FALSE)</f>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7">
+        <v>1</v>
+      </c>
+      <c r="S45" t="str">
+        <f>VLOOKUP($E45&amp;"."&amp;G$1,T:W,4,FALSE)</f>
         <v>Q7.</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44122</v>
       </c>
@@ -13191,11 +13243,12 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44123</v>
       </c>
@@ -13217,11 +13270,12 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44124</v>
       </c>
@@ -13243,11 +13297,12 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44125</v>
       </c>
@@ -13269,11 +13324,12 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
-      <c r="P49" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>44126</v>
       </c>
@@ -13295,11 +13351,12 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>44127</v>
       </c>
@@ -13321,11 +13378,12 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>44129</v>
       </c>
@@ -13347,11 +13405,12 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
-      <c r="P52" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>44130</v>
       </c>
@@ -13373,11 +13432,12 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>44134</v>
       </c>
@@ -13399,11 +13459,12 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
-      <c r="P54" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>44135</v>
       </c>
@@ -13425,11 +13486,12 @@
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>44136</v>
       </c>
@@ -13451,11 +13513,12 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
-      <c r="P56" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>44139</v>
       </c>
@@ -13477,11 +13540,12 @@
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
-      <c r="P57" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>44140</v>
       </c>
@@ -13503,11 +13567,12 @@
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
-      <c r="P58" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>44141</v>
       </c>
@@ -13529,11 +13594,12 @@
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
-      <c r="P59" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>44142</v>
       </c>
@@ -13555,11 +13621,12 @@
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
-      <c r="P60" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>44147</v>
       </c>
@@ -13581,11 +13648,12 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
-      <c r="P61" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>44148</v>
       </c>
@@ -13607,11 +13675,12 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>44150</v>
       </c>
@@ -13637,11 +13706,12 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="7">
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>44152</v>
       </c>
@@ -13667,11 +13737,12 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="7">
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>44155</v>
       </c>
@@ -13697,11 +13768,12 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="7">
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>44157</v>
       </c>
@@ -13727,11 +13799,12 @@
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
-      <c r="P66" s="7">
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>44158</v>
       </c>
@@ -13757,11 +13830,12 @@
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
-      <c r="P67" s="7">
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>44161</v>
       </c>
@@ -13787,11 +13861,12 @@
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
-      <c r="P68" s="7">
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>44162</v>
       </c>
@@ -13817,11 +13892,12 @@
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
-      <c r="P69" s="7">
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>44164</v>
       </c>
@@ -13847,11 +13923,12 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
-      <c r="P70" s="7">
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>44165</v>
       </c>
@@ -13877,11 +13954,12 @@
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
-      <c r="P71" s="7">
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>44166</v>
       </c>
@@ -13907,11 +13985,12 @@
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
-      <c r="P72" s="7">
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>44168</v>
       </c>
@@ -13937,11 +14016,12 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
-      <c r="P73" s="7">
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>44169</v>
       </c>
@@ -13967,11 +14047,12 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
-      <c r="P74" s="7">
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>44171</v>
       </c>
@@ -13997,11 +14078,12 @@
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
-      <c r="P75" s="7">
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>44172</v>
       </c>
@@ -14027,11 +14109,12 @@
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
-      <c r="P76" s="7">
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>44173</v>
       </c>
@@ -14057,11 +14140,12 @@
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
-      <c r="P77" s="7">
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>44174</v>
       </c>
@@ -14087,11 +14171,12 @@
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
       <c r="O78" s="7"/>
-      <c r="P78" s="7">
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>44175</v>
       </c>
@@ -14117,11 +14202,12 @@
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
-      <c r="P79" s="7">
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>44176</v>
       </c>
@@ -14147,11 +14233,12 @@
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
-      <c r="P80" s="7">
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>44181</v>
       </c>
@@ -14177,11 +14264,12 @@
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
       <c r="O81" s="7"/>
-      <c r="P81" s="7">
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>44187</v>
       </c>
@@ -14207,11 +14295,12 @@
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
       <c r="O82" s="7"/>
-      <c r="P82" s="7">
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>44188</v>
       </c>
@@ -14237,11 +14326,12 @@
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
       <c r="O83" s="7"/>
-      <c r="P83" s="7">
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>44190</v>
       </c>
@@ -14267,11 +14357,12 @@
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
       <c r="O84" s="7"/>
-      <c r="P84" s="7">
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>44191</v>
       </c>
@@ -14297,11 +14388,12 @@
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
       <c r="O85" s="7"/>
-      <c r="P85" s="7">
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>44201</v>
       </c>
@@ -14327,11 +14419,12 @@
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
       <c r="O86" s="7"/>
-      <c r="P86" s="7">
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>44202</v>
       </c>
@@ -14357,11 +14450,12 @@
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
       <c r="O87" s="7"/>
-      <c r="P87" s="7">
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>44203</v>
       </c>
@@ -14387,15 +14481,16 @@
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
       <c r="O88" s="7"/>
-      <c r="P88" s="7">
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7">
         <v>3</v>
       </c>
-      <c r="R88" t="str">
-        <f>VLOOKUP($E88&amp;"."&amp;H$1,S:V,4,FALSE)</f>
+      <c r="S88" t="str">
+        <f>VLOOKUP($E88&amp;"."&amp;H$1,T:W,4,FALSE)</f>
         <v>Q1.</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>44204</v>
       </c>
@@ -14421,11 +14516,12 @@
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
       <c r="O89" s="7"/>
-      <c r="P89" s="7">
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>44226</v>
       </c>
@@ -14451,11 +14547,12 @@
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7"/>
-      <c r="P90" s="7">
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>44227</v>
       </c>
@@ -14481,11 +14578,12 @@
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
-      <c r="P91" s="7">
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>44228</v>
       </c>
@@ -14511,11 +14609,12 @@
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
       <c r="O92" s="7"/>
-      <c r="P92" s="7">
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>44229</v>
       </c>
@@ -14541,11 +14640,12 @@
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
       <c r="O93" s="7"/>
-      <c r="P93" s="7">
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -14571,11 +14671,12 @@
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
       <c r="O94" s="7"/>
-      <c r="P94" s="7">
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -14601,11 +14702,12 @@
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
       <c r="O95" s="7"/>
-      <c r="P95" s="7">
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -14631,11 +14733,12 @@
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7"/>
-      <c r="P96" s="7">
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -14661,11 +14764,12 @@
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7"/>
-      <c r="P97" s="7">
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -14691,11 +14795,12 @@
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7"/>
-      <c r="P98" s="7">
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>25</v>
       </c>
@@ -14721,11 +14826,12 @@
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
-      <c r="P99" s="7">
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>44234</v>
       </c>
@@ -14749,11 +14855,12 @@
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
       <c r="O100" s="7"/>
-      <c r="P100" s="7">
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -14777,11 +14884,12 @@
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
       <c r="O101" s="7"/>
-      <c r="P101" s="7">
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -14805,11 +14913,12 @@
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
       <c r="O102" s="7"/>
-      <c r="P102" s="7">
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>28</v>
       </c>
@@ -14833,11 +14942,12 @@
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
       <c r="O103" s="7"/>
-      <c r="P103" s="7">
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -14861,11 +14971,12 @@
       <c r="M104" s="7"/>
       <c r="N104" s="7"/>
       <c r="O104" s="7"/>
-      <c r="P104" s="7">
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -14887,15 +14998,16 @@
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
       <c r="O105" s="7"/>
-      <c r="P105" s="7">
-        <v>1</v>
-      </c>
-      <c r="R105" t="str">
-        <f>VLOOKUP($E105&amp;"."&amp;I$1,S:V,4,FALSE)</f>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7">
+        <v>1</v>
+      </c>
+      <c r="S105" t="str">
+        <f>VLOOKUP($E105&amp;"."&amp;I$1,T:W,4,FALSE)</f>
         <v>Q7.</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>50176</v>
       </c>
@@ -14917,11 +15029,12 @@
       <c r="M106" s="7"/>
       <c r="N106" s="7"/>
       <c r="O106" s="7"/>
-      <c r="P106" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>50177</v>
       </c>
@@ -14943,11 +15056,12 @@
       <c r="M107" s="7"/>
       <c r="N107" s="7"/>
       <c r="O107" s="7"/>
-      <c r="P107" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>50178</v>
       </c>
@@ -14969,11 +15083,12 @@
       <c r="M108" s="7"/>
       <c r="N108" s="7"/>
       <c r="O108" s="7"/>
-      <c r="P108" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>50179</v>
       </c>
@@ -14995,11 +15110,12 @@
       <c r="M109" s="7"/>
       <c r="N109" s="7"/>
       <c r="O109" s="7"/>
-      <c r="P109" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50180</v>
       </c>
@@ -15021,11 +15137,12 @@
       <c r="M110" s="7"/>
       <c r="N110" s="7"/>
       <c r="O110" s="7"/>
-      <c r="P110" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>50181</v>
       </c>
@@ -15047,11 +15164,12 @@
       <c r="M111" s="7"/>
       <c r="N111" s="7"/>
       <c r="O111" s="7"/>
-      <c r="P111" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>50182</v>
       </c>
@@ -15073,11 +15191,12 @@
       <c r="M112" s="7"/>
       <c r="N112" s="7"/>
       <c r="O112" s="7"/>
-      <c r="P112" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>50183</v>
       </c>
@@ -15099,11 +15218,12 @@
       <c r="M113" s="7"/>
       <c r="N113" s="7"/>
       <c r="O113" s="7"/>
-      <c r="P113" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>50184</v>
       </c>
@@ -15125,11 +15245,12 @@
       <c r="M114" s="7"/>
       <c r="N114" s="7"/>
       <c r="O114" s="7"/>
-      <c r="P114" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>50185</v>
       </c>
@@ -15151,11 +15272,12 @@
       <c r="M115" s="7"/>
       <c r="N115" s="7"/>
       <c r="O115" s="7"/>
-      <c r="P115" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>50186</v>
       </c>
@@ -15177,11 +15299,12 @@
       <c r="M116" s="7"/>
       <c r="N116" s="7"/>
       <c r="O116" s="7"/>
-      <c r="P116" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>50189</v>
       </c>
@@ -15203,11 +15326,12 @@
       <c r="M117" s="7"/>
       <c r="N117" s="7"/>
       <c r="O117" s="7"/>
-      <c r="P117" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>50190</v>
       </c>
@@ -15229,11 +15353,12 @@
       <c r="M118" s="7"/>
       <c r="N118" s="7"/>
       <c r="O118" s="7"/>
-      <c r="P118" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>50191</v>
       </c>
@@ -15255,11 +15380,12 @@
       <c r="M119" s="7"/>
       <c r="N119" s="7"/>
       <c r="O119" s="7"/>
-      <c r="P119" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>50192</v>
       </c>
@@ -15281,11 +15407,12 @@
       <c r="M120" s="7"/>
       <c r="N120" s="7"/>
       <c r="O120" s="7"/>
-      <c r="P120" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>50193</v>
       </c>
@@ -15307,11 +15434,12 @@
       <c r="M121" s="7"/>
       <c r="N121" s="7"/>
       <c r="O121" s="7"/>
-      <c r="P121" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>50194</v>
       </c>
@@ -15333,11 +15461,12 @@
       <c r="M122" s="7"/>
       <c r="N122" s="7"/>
       <c r="O122" s="7"/>
-      <c r="P122" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P122" s="7"/>
+      <c r="Q122" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>50196</v>
       </c>
@@ -15359,15 +15488,16 @@
       <c r="M123" s="7"/>
       <c r="N123" s="7"/>
       <c r="O123" s="7"/>
-      <c r="P123" s="7">
-        <v>1</v>
-      </c>
-      <c r="R123" t="str">
-        <f>VLOOKUP($E123&amp;"."&amp;J$1,S:V,4,FALSE)</f>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7">
+        <v>1</v>
+      </c>
+      <c r="S123" t="str">
+        <f>VLOOKUP($E123&amp;"."&amp;J$1,T:W,4,FALSE)</f>
         <v>Q19.</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>50197</v>
       </c>
@@ -15389,11 +15519,12 @@
       <c r="M124" s="7"/>
       <c r="N124" s="7"/>
       <c r="O124" s="7"/>
-      <c r="P124" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P124" s="7"/>
+      <c r="Q124" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>50198</v>
       </c>
@@ -15415,15 +15546,16 @@
       <c r="M125" s="7"/>
       <c r="N125" s="7"/>
       <c r="O125" s="7"/>
-      <c r="P125" s="7">
-        <v>1</v>
-      </c>
-      <c r="R125" t="str">
-        <f>VLOOKUP($E125&amp;"."&amp;K$1,S:V,4,FALSE)</f>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7">
+        <v>1</v>
+      </c>
+      <c r="S125" t="str">
+        <f>VLOOKUP($E125&amp;"."&amp;K$1,T:W,4,FALSE)</f>
         <v>Q1.</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>50199</v>
       </c>
@@ -15445,11 +15577,12 @@
       <c r="M126" s="7"/>
       <c r="N126" s="7"/>
       <c r="O126" s="7"/>
-      <c r="P126" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>50215</v>
       </c>
@@ -15471,11 +15604,12 @@
       <c r="M127" s="7"/>
       <c r="N127" s="7"/>
       <c r="O127" s="7"/>
-      <c r="P127" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>50216</v>
       </c>
@@ -15497,11 +15631,12 @@
       <c r="M128" s="7"/>
       <c r="N128" s="7"/>
       <c r="O128" s="7"/>
-      <c r="P128" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P128" s="7"/>
+      <c r="Q128" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>50217</v>
       </c>
@@ -15523,11 +15658,12 @@
       <c r="M129" s="7"/>
       <c r="N129" s="7"/>
       <c r="O129" s="7"/>
-      <c r="P129" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>50234</v>
       </c>
@@ -15549,11 +15685,12 @@
       <c r="M130" s="7"/>
       <c r="N130" s="7"/>
       <c r="O130" s="7"/>
-      <c r="P130" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P130" s="7"/>
+      <c r="Q130" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>50235</v>
       </c>
@@ -15575,11 +15712,12 @@
       <c r="M131" s="7"/>
       <c r="N131" s="7"/>
       <c r="O131" s="7"/>
-      <c r="P131" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P131" s="7"/>
+      <c r="Q131" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>50241</v>
       </c>
@@ -15601,11 +15739,12 @@
       <c r="M132" s="7"/>
       <c r="N132" s="7"/>
       <c r="O132" s="7"/>
-      <c r="P132" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P132" s="7"/>
+      <c r="Q132" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>50243</v>
       </c>
@@ -15627,11 +15766,12 @@
       <c r="M133" s="7"/>
       <c r="N133" s="7"/>
       <c r="O133" s="7"/>
-      <c r="P133" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P133" s="7"/>
+      <c r="Q133" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>50253</v>
       </c>
@@ -15653,11 +15793,12 @@
       <c r="M134" s="7"/>
       <c r="N134" s="7"/>
       <c r="O134" s="7"/>
-      <c r="P134" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P134" s="7"/>
+      <c r="Q134" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -15679,11 +15820,12 @@
       <c r="M135" s="7"/>
       <c r="N135" s="7"/>
       <c r="O135" s="7"/>
-      <c r="P135" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>32</v>
       </c>
@@ -15705,11 +15847,12 @@
       <c r="M136" s="7"/>
       <c r="N136" s="7"/>
       <c r="O136" s="7"/>
-      <c r="P136" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P136" s="7"/>
+      <c r="Q136" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -15731,11 +15874,12 @@
       <c r="M137" s="7"/>
       <c r="N137" s="7"/>
       <c r="O137" s="7"/>
-      <c r="P137" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -15757,11 +15901,12 @@
       <c r="M138" s="7"/>
       <c r="N138" s="7"/>
       <c r="O138" s="7"/>
-      <c r="P138" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P138" s="7"/>
+      <c r="Q138" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>35</v>
       </c>
@@ -15783,11 +15928,12 @@
       <c r="M139" s="7"/>
       <c r="N139" s="7"/>
       <c r="O139" s="7"/>
-      <c r="P139" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P139" s="7"/>
+      <c r="Q139" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>50256</v>
       </c>
@@ -15809,11 +15955,12 @@
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
       <c r="O140" s="7"/>
-      <c r="P140" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P140" s="7"/>
+      <c r="Q140" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -15835,11 +15982,12 @@
       <c r="M141" s="7"/>
       <c r="N141" s="7"/>
       <c r="O141" s="7"/>
-      <c r="P141" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P141" s="7"/>
+      <c r="Q141" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>37</v>
       </c>
@@ -15861,11 +16009,12 @@
       <c r="M142" s="7"/>
       <c r="N142" s="7"/>
       <c r="O142" s="7"/>
-      <c r="P142" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P142" s="7"/>
+      <c r="Q142" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -15887,11 +16036,12 @@
       <c r="M143" s="7"/>
       <c r="N143" s="7"/>
       <c r="O143" s="7"/>
-      <c r="P143" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P143" s="7"/>
+      <c r="Q143" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -15913,11 +16063,12 @@
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
       <c r="O144" s="7"/>
-      <c r="P144" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P144" s="7"/>
+      <c r="Q144" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>40</v>
       </c>
@@ -15939,11 +16090,12 @@
       <c r="M145" s="7"/>
       <c r="N145" s="7"/>
       <c r="O145" s="7"/>
-      <c r="P145" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P145" s="7"/>
+      <c r="Q145" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>50344</v>
       </c>
@@ -15965,11 +16117,12 @@
       <c r="M146" s="7"/>
       <c r="N146" s="7"/>
       <c r="O146" s="7"/>
-      <c r="P146" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P146" s="7"/>
+      <c r="Q146" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>50699</v>
       </c>
@@ -15991,11 +16144,12 @@
       <c r="M147" s="7"/>
       <c r="N147" s="7"/>
       <c r="O147" s="7"/>
-      <c r="P147" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P147" s="7"/>
+      <c r="Q147" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>41</v>
       </c>
@@ -16017,11 +16171,12 @@
       <c r="M148" s="7"/>
       <c r="N148" s="7"/>
       <c r="O148" s="7"/>
-      <c r="P148" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P148" s="7"/>
+      <c r="Q148" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>50176</v>
       </c>
@@ -16043,11 +16198,12 @@
       <c r="M149" s="7"/>
       <c r="N149" s="7"/>
       <c r="O149" s="7"/>
-      <c r="P149" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P149" s="7"/>
+      <c r="Q149" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>50177</v>
       </c>
@@ -16069,11 +16225,12 @@
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
       <c r="O150" s="7"/>
-      <c r="P150" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P150" s="7"/>
+      <c r="Q150" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>50178</v>
       </c>
@@ -16095,11 +16252,12 @@
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
       <c r="O151" s="7"/>
-      <c r="P151" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P151" s="7"/>
+      <c r="Q151" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>50179</v>
       </c>
@@ -16121,11 +16279,12 @@
       <c r="M152" s="7"/>
       <c r="N152" s="7"/>
       <c r="O152" s="7"/>
-      <c r="P152" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P152" s="7"/>
+      <c r="Q152" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>50180</v>
       </c>
@@ -16147,11 +16306,12 @@
       <c r="M153" s="7"/>
       <c r="N153" s="7"/>
       <c r="O153" s="7"/>
-      <c r="P153" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P153" s="7"/>
+      <c r="Q153" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>50181</v>
       </c>
@@ -16173,11 +16333,12 @@
       <c r="M154" s="7"/>
       <c r="N154" s="7"/>
       <c r="O154" s="7"/>
-      <c r="P154" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P154" s="7"/>
+      <c r="Q154" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>50182</v>
       </c>
@@ -16199,11 +16360,12 @@
       <c r="M155" s="7"/>
       <c r="N155" s="7"/>
       <c r="O155" s="7"/>
-      <c r="P155" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P155" s="7"/>
+      <c r="Q155" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>50183</v>
       </c>
@@ -16225,11 +16387,12 @@
       <c r="M156" s="7"/>
       <c r="N156" s="7"/>
       <c r="O156" s="7"/>
-      <c r="P156" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P156" s="7"/>
+      <c r="Q156" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>50184</v>
       </c>
@@ -16251,11 +16414,12 @@
       <c r="M157" s="7"/>
       <c r="N157" s="7"/>
       <c r="O157" s="7"/>
-      <c r="P157" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P157" s="7"/>
+      <c r="Q157" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>50190</v>
       </c>
@@ -16277,11 +16441,12 @@
       <c r="M158" s="7"/>
       <c r="N158" s="7"/>
       <c r="O158" s="7"/>
-      <c r="P158" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P158" s="7"/>
+      <c r="Q158" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>50191</v>
       </c>
@@ -16303,11 +16468,12 @@
       <c r="M159" s="7"/>
       <c r="N159" s="7"/>
       <c r="O159" s="7"/>
-      <c r="P159" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>50194</v>
       </c>
@@ -16329,11 +16495,12 @@
       <c r="M160" s="7"/>
       <c r="N160" s="7"/>
       <c r="O160" s="7"/>
-      <c r="P160" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P160" s="7"/>
+      <c r="Q160" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>50196</v>
       </c>
@@ -16355,11 +16522,12 @@
       <c r="M161" s="7"/>
       <c r="N161" s="7"/>
       <c r="O161" s="7"/>
-      <c r="P161" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P161" s="7"/>
+      <c r="Q161" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>50197</v>
       </c>
@@ -16381,11 +16549,12 @@
       <c r="M162" s="7"/>
       <c r="N162" s="7"/>
       <c r="O162" s="7"/>
-      <c r="P162" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P162" s="7"/>
+      <c r="Q162" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>50198</v>
       </c>
@@ -16407,11 +16576,12 @@
       <c r="M163" s="7"/>
       <c r="N163" s="7"/>
       <c r="O163" s="7"/>
-      <c r="P163" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P163" s="7"/>
+      <c r="Q163" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>50199</v>
       </c>
@@ -16433,11 +16603,12 @@
       <c r="M164" s="7"/>
       <c r="N164" s="7"/>
       <c r="O164" s="7"/>
-      <c r="P164" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P164" s="7"/>
+      <c r="Q164" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>50215</v>
       </c>
@@ -16459,11 +16630,12 @@
       <c r="M165" s="7"/>
       <c r="N165" s="7"/>
       <c r="O165" s="7"/>
-      <c r="P165" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P165" s="7"/>
+      <c r="Q165" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>50216</v>
       </c>
@@ -16485,11 +16657,12 @@
       <c r="M166" s="7"/>
       <c r="N166" s="7"/>
       <c r="O166" s="7"/>
-      <c r="P166" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P166" s="7"/>
+      <c r="Q166" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>50217</v>
       </c>
@@ -16511,11 +16684,12 @@
       <c r="M167" s="7"/>
       <c r="N167" s="7"/>
       <c r="O167" s="7"/>
-      <c r="P167" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P167" s="7"/>
+      <c r="Q167" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>50226</v>
       </c>
@@ -16537,11 +16711,12 @@
       <c r="M168" s="7"/>
       <c r="N168" s="7"/>
       <c r="O168" s="7"/>
-      <c r="P168" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>50234</v>
       </c>
@@ -16563,11 +16738,12 @@
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
       <c r="O169" s="7"/>
-      <c r="P169" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P169" s="7"/>
+      <c r="Q169" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>50235</v>
       </c>
@@ -16589,11 +16765,12 @@
       <c r="M170" s="7"/>
       <c r="N170" s="7"/>
       <c r="O170" s="7"/>
-      <c r="P170" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>50241</v>
       </c>
@@ -16609,21 +16786,25 @@
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
-      <c r="L171" s="10">
+      <c r="L171">
         <v>1</v>
       </c>
       <c r="M171" s="7"/>
       <c r="N171" s="7"/>
       <c r="O171" s="7"/>
-      <c r="P171" s="7">
-        <v>1</v>
-      </c>
-      <c r="R171" t="str">
-        <f>VLOOKUP($E171&amp;"."&amp;L$1,S:V,4,FALSE)</f>
+      <c r="P171" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="7">
+        <f>SUM(F171:P171)</f>
+        <v>2</v>
+      </c>
+      <c r="S171" t="str">
+        <f>VLOOKUP($E171&amp;"."&amp;L$1,T:W,4,FALSE)</f>
         <v>Q1.</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>50243</v>
       </c>
@@ -16648,8 +16829,12 @@
       <c r="P172" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q172" s="7">
+        <f t="shared" ref="Q172:Q235" si="1">SUM(F172:P172)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>50253</v>
       </c>
@@ -16674,8 +16859,12 @@
       <c r="P173" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q173" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>31</v>
       </c>
@@ -16700,8 +16889,12 @@
       <c r="P174" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q174" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>32</v>
       </c>
@@ -16726,8 +16919,12 @@
       <c r="P175" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q175" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>33</v>
       </c>
@@ -16752,8 +16949,12 @@
       <c r="P176" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q176" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>34</v>
       </c>
@@ -16778,8 +16979,12 @@
       <c r="P177" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q177" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>35</v>
       </c>
@@ -16804,8 +17009,12 @@
       <c r="P178" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q178" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>50256</v>
       </c>
@@ -16830,8 +17039,12 @@
       <c r="P179" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q179" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>36</v>
       </c>
@@ -16856,8 +17069,12 @@
       <c r="P180" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q180" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>37</v>
       </c>
@@ -16882,8 +17099,12 @@
       <c r="P181" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q181" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>38</v>
       </c>
@@ -16908,8 +17129,12 @@
       <c r="P182" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q182" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>39</v>
       </c>
@@ -16934,8 +17159,12 @@
       <c r="P183" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q183" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>40</v>
       </c>
@@ -16951,17 +17180,19 @@
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
-      <c r="L184" s="7">
+      <c r="L184" s="14">
         <v>1</v>
       </c>
       <c r="M184" s="7"/>
       <c r="N184" s="7"/>
       <c r="O184" s="7"/>
-      <c r="P184" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P184" s="7"/>
+      <c r="Q184" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>50344</v>
       </c>
@@ -16986,8 +17217,12 @@
       <c r="P185" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q185" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>50699</v>
       </c>
@@ -17012,8 +17247,12 @@
       <c r="P186" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q186" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>53426</v>
       </c>
@@ -17035,11 +17274,13 @@
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
       <c r="O187" s="7"/>
-      <c r="P187" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P187" s="7"/>
+      <c r="Q187" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>41</v>
       </c>
@@ -17061,11 +17302,13 @@
       <c r="M188" s="7"/>
       <c r="N188" s="7"/>
       <c r="O188" s="7"/>
-      <c r="P188" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P188" s="7"/>
+      <c r="Q188" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>50176</v>
       </c>
@@ -17087,11 +17330,13 @@
       <c r="M189" s="7"/>
       <c r="N189" s="7"/>
       <c r="O189" s="7"/>
-      <c r="P189" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P189" s="7"/>
+      <c r="Q189" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>50177</v>
       </c>
@@ -17116,8 +17361,12 @@
       <c r="P190" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q190" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>50178</v>
       </c>
@@ -17142,8 +17391,12 @@
       <c r="P191" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q191" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>50179</v>
       </c>
@@ -17168,8 +17421,12 @@
       <c r="P192" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q192" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>50180</v>
       </c>
@@ -17194,8 +17451,12 @@
       <c r="P193" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q193" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>50181</v>
       </c>
@@ -17217,11 +17478,13 @@
       <c r="M194" s="7"/>
       <c r="N194" s="7"/>
       <c r="O194" s="7"/>
-      <c r="P194" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P194" s="7"/>
+      <c r="Q194" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>50182</v>
       </c>
@@ -17246,8 +17509,12 @@
       <c r="P195" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q195" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>50183</v>
       </c>
@@ -17272,8 +17539,12 @@
       <c r="P196" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q196" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>50184</v>
       </c>
@@ -17298,8 +17569,12 @@
       <c r="P197" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q197" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>50185</v>
       </c>
@@ -17324,8 +17599,12 @@
       <c r="P198" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q198" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>50186</v>
       </c>
@@ -17350,8 +17629,12 @@
       <c r="P199" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q199" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>50189</v>
       </c>
@@ -17376,8 +17659,12 @@
       <c r="P200" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q200" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>50190</v>
       </c>
@@ -17402,8 +17689,12 @@
       <c r="P201" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q201" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>50191</v>
       </c>
@@ -17428,8 +17719,12 @@
       <c r="P202" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q202" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>50192</v>
       </c>
@@ -17454,8 +17749,12 @@
       <c r="P203" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q203" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>50193</v>
       </c>
@@ -17480,8 +17779,12 @@
       <c r="P204" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q204" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>50194</v>
       </c>
@@ -17506,8 +17809,12 @@
       <c r="P205" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q205" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>50196</v>
       </c>
@@ -17529,11 +17836,13 @@
       <c r="M206" s="7"/>
       <c r="N206" s="7"/>
       <c r="O206" s="7"/>
-      <c r="P206" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P206" s="7"/>
+      <c r="Q206" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>50197</v>
       </c>
@@ -17555,11 +17864,13 @@
       <c r="M207" s="7"/>
       <c r="N207" s="7"/>
       <c r="O207" s="7"/>
-      <c r="P207" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P207" s="7"/>
+      <c r="Q207" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>50198</v>
       </c>
@@ -17584,8 +17895,12 @@
       <c r="P208" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q208" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>50199</v>
       </c>
@@ -17610,8 +17925,12 @@
       <c r="P209" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q209" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>50215</v>
       </c>
@@ -17636,8 +17955,12 @@
       <c r="P210" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q210" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>50216</v>
       </c>
@@ -17662,8 +17985,12 @@
       <c r="P211" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q211" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>50217</v>
       </c>
@@ -17688,8 +18015,12 @@
       <c r="P212" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q212" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>50234</v>
       </c>
@@ -17714,8 +18045,12 @@
       <c r="P213" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q213" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>50235</v>
       </c>
@@ -17740,8 +18075,12 @@
       <c r="P214" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q214" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>50241</v>
       </c>
@@ -17766,8 +18105,12 @@
       <c r="P215" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q215" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>50243</v>
       </c>
@@ -17792,8 +18135,12 @@
       <c r="P216" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q216" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>50253</v>
       </c>
@@ -17818,8 +18165,12 @@
       <c r="P217" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q217" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>31</v>
       </c>
@@ -17844,8 +18195,12 @@
       <c r="P218" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q218" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>32</v>
       </c>
@@ -17867,11 +18222,13 @@
       <c r="M219" s="7"/>
       <c r="N219" s="7"/>
       <c r="O219" s="7"/>
-      <c r="P219" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P219" s="7"/>
+      <c r="Q219" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>33</v>
       </c>
@@ -17893,11 +18250,13 @@
       <c r="M220" s="7"/>
       <c r="N220" s="7"/>
       <c r="O220" s="7"/>
-      <c r="P220" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P220" s="7"/>
+      <c r="Q220" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>34</v>
       </c>
@@ -17919,11 +18278,13 @@
       <c r="M221" s="7"/>
       <c r="N221" s="7"/>
       <c r="O221" s="7"/>
-      <c r="P221" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P221" s="7"/>
+      <c r="Q221" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>35</v>
       </c>
@@ -17945,11 +18306,13 @@
       <c r="M222" s="7"/>
       <c r="N222" s="7"/>
       <c r="O222" s="7"/>
-      <c r="P222" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P222" s="7"/>
+      <c r="Q222" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>50256</v>
       </c>
@@ -17974,8 +18337,12 @@
       <c r="P223" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q223" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>36</v>
       </c>
@@ -18000,8 +18367,12 @@
       <c r="P224" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q224" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>37</v>
       </c>
@@ -18026,8 +18397,12 @@
       <c r="P225" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q225" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>38</v>
       </c>
@@ -18052,8 +18427,12 @@
       <c r="P226" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q226" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>39</v>
       </c>
@@ -18078,8 +18457,12 @@
       <c r="P227" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q227" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>40</v>
       </c>
@@ -18104,8 +18487,12 @@
       <c r="P228" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q228" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>50344</v>
       </c>
@@ -18130,8 +18517,12 @@
       <c r="P229" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q229" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>50541</v>
       </c>
@@ -18156,8 +18547,12 @@
       <c r="P230" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q230" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>50542</v>
       </c>
@@ -18182,8 +18577,12 @@
       <c r="P231" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q231" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>50543</v>
       </c>
@@ -18208,8 +18607,12 @@
       <c r="P232" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q232" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>50544</v>
       </c>
@@ -18234,8 +18637,12 @@
       <c r="P233" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q233" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>50545</v>
       </c>
@@ -18260,8 +18667,12 @@
       <c r="P234" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q234" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>50546</v>
       </c>
@@ -18283,11 +18694,13 @@
       <c r="M235" s="7"/>
       <c r="N235" s="7"/>
       <c r="O235" s="7"/>
-      <c r="P235" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P235" s="7"/>
+      <c r="Q235" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>50547</v>
       </c>
@@ -18309,11 +18722,13 @@
       <c r="M236" s="7"/>
       <c r="N236" s="7"/>
       <c r="O236" s="7"/>
-      <c r="P236" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P236" s="7"/>
+      <c r="Q236" s="7">
+        <f t="shared" ref="Q236:Q245" si="2">SUM(F236:P236)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>50548</v>
       </c>
@@ -18335,11 +18750,13 @@
       <c r="M237" s="7"/>
       <c r="N237" s="7"/>
       <c r="O237" s="7"/>
-      <c r="P237" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P237" s="7"/>
+      <c r="Q237" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>50549</v>
       </c>
@@ -18361,11 +18778,13 @@
       <c r="M238" s="7"/>
       <c r="N238" s="7"/>
       <c r="O238" s="7"/>
-      <c r="P238" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P238" s="7"/>
+      <c r="Q238" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>50550</v>
       </c>
@@ -18387,11 +18806,13 @@
       <c r="M239" s="7"/>
       <c r="N239" s="7"/>
       <c r="O239" s="7"/>
-      <c r="P239" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P239" s="7"/>
+      <c r="Q239" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>50551</v>
       </c>
@@ -18413,11 +18834,13 @@
       <c r="M240" s="7"/>
       <c r="N240" s="7"/>
       <c r="O240" s="7"/>
-      <c r="P240" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P240" s="7"/>
+      <c r="Q240" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>50552</v>
       </c>
@@ -18442,8 +18865,12 @@
       <c r="P241" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q241" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>50553</v>
       </c>
@@ -18468,8 +18895,12 @@
       <c r="P242" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q242" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>50554</v>
       </c>
@@ -18494,8 +18925,12 @@
       <c r="P243" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q243" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>50555</v>
       </c>
@@ -18520,8 +18955,12 @@
       <c r="P244" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q244" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>50556</v>
       </c>
@@ -18546,8 +18985,12 @@
       <c r="P245" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q245" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>50557</v>
       </c>
@@ -18573,15 +19016,16 @@
       <c r="O246" s="14">
         <v>1</v>
       </c>
-      <c r="P246" s="7">
+      <c r="P246" s="14"/>
+      <c r="Q246" s="7">
         <v>3</v>
       </c>
-      <c r="R246" t="str">
-        <f>VLOOKUP($E246&amp;"."&amp;O$1,S:V,4,FALSE)</f>
+      <c r="S246" t="str">
+        <f>VLOOKUP($E246&amp;"."&amp;O$1,T:W,4,FALSE)</f>
         <v>Q1.</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>50558</v>
       </c>
@@ -18607,11 +19051,12 @@
       <c r="O247" s="7">
         <v>1</v>
       </c>
-      <c r="P247" s="7">
+      <c r="P247" s="7"/>
+      <c r="Q247" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>50699</v>
       </c>
@@ -18637,11 +19082,12 @@
       <c r="O248" s="7">
         <v>1</v>
       </c>
-      <c r="P248" s="7">
+      <c r="P248" s="7"/>
+      <c r="Q248" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>41</v>
       </c>
@@ -18667,11 +19113,12 @@
       <c r="O249" s="7">
         <v>1</v>
       </c>
-      <c r="P249" s="7">
+      <c r="P249" s="7"/>
+      <c r="Q249" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>39113</v>
       </c>
@@ -18697,11 +19144,12 @@
       <c r="O250" s="7">
         <v>1</v>
       </c>
-      <c r="P250" s="7">
+      <c r="P250" s="7"/>
+      <c r="Q250" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>39114</v>
       </c>
@@ -18727,11 +19175,12 @@
       <c r="O251" s="7">
         <v>1</v>
       </c>
-      <c r="P251" s="7">
+      <c r="P251" s="7"/>
+      <c r="Q251" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>39115</v>
       </c>
@@ -18757,11 +19206,12 @@
       <c r="O252" s="7">
         <v>1</v>
       </c>
-      <c r="P252" s="7">
+      <c r="P252" s="7"/>
+      <c r="Q252" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>39116</v>
       </c>
@@ -18787,11 +19237,12 @@
       <c r="O253" s="7">
         <v>1</v>
       </c>
-      <c r="P253" s="7">
+      <c r="P253" s="7"/>
+      <c r="Q253" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>39117</v>
       </c>
@@ -18817,11 +19268,12 @@
       <c r="O254" s="7">
         <v>1</v>
       </c>
-      <c r="P254" s="7">
+      <c r="P254" s="7"/>
+      <c r="Q254" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>39118</v>
       </c>
@@ -18847,11 +19299,12 @@
       <c r="O255" s="7">
         <v>1</v>
       </c>
-      <c r="P255" s="7">
+      <c r="P255" s="7"/>
+      <c r="Q255" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>39119</v>
       </c>
@@ -18877,11 +19330,12 @@
       <c r="O256" s="7">
         <v>1</v>
       </c>
-      <c r="P256" s="7">
+      <c r="P256" s="7"/>
+      <c r="Q256" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>39120</v>
       </c>
@@ -18907,11 +19361,12 @@
       <c r="O257" s="7">
         <v>1</v>
       </c>
-      <c r="P257" s="7">
+      <c r="P257" s="7"/>
+      <c r="Q257" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>39121</v>
       </c>
@@ -18937,11 +19392,12 @@
       <c r="O258" s="7">
         <v>1</v>
       </c>
-      <c r="P258" s="7">
+      <c r="P258" s="7"/>
+      <c r="Q258" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>39122</v>
       </c>
@@ -18967,11 +19423,12 @@
       <c r="O259" s="7">
         <v>1</v>
       </c>
-      <c r="P259" s="7">
+      <c r="P259" s="7"/>
+      <c r="Q259" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>39123</v>
       </c>
@@ -18997,11 +19454,12 @@
       <c r="O260" s="7">
         <v>1</v>
       </c>
-      <c r="P260" s="7">
+      <c r="P260" s="7"/>
+      <c r="Q260" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>39124</v>
       </c>
@@ -19027,11 +19485,12 @@
       <c r="O261" s="7">
         <v>1</v>
       </c>
-      <c r="P261" s="7">
+      <c r="P261" s="7"/>
+      <c r="Q261" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>39125</v>
       </c>
@@ -19057,11 +19516,12 @@
       <c r="O262" s="7">
         <v>1</v>
       </c>
-      <c r="P262" s="7">
+      <c r="P262" s="7"/>
+      <c r="Q262" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>39126</v>
       </c>
@@ -19087,11 +19547,12 @@
       <c r="O263" s="7">
         <v>1</v>
       </c>
-      <c r="P263" s="7">
+      <c r="P263" s="7"/>
+      <c r="Q263" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>39127</v>
       </c>
@@ -19117,11 +19578,12 @@
       <c r="O264" s="7">
         <v>1</v>
       </c>
-      <c r="P264" s="7">
+      <c r="P264" s="7"/>
+      <c r="Q264" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>39128</v>
       </c>
@@ -19147,11 +19609,12 @@
       <c r="O265" s="7">
         <v>1</v>
       </c>
-      <c r="P265" s="7">
+      <c r="P265" s="7"/>
+      <c r="Q265" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>39129</v>
       </c>
@@ -19177,11 +19640,12 @@
       <c r="O266" s="7">
         <v>1</v>
       </c>
-      <c r="P266" s="7">
+      <c r="P266" s="7"/>
+      <c r="Q266" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>39130</v>
       </c>
@@ -19207,11 +19671,12 @@
       <c r="O267" s="7">
         <v>1</v>
       </c>
-      <c r="P267" s="7">
+      <c r="P267" s="7"/>
+      <c r="Q267" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>39131</v>
       </c>
@@ -19237,11 +19702,12 @@
       <c r="O268" s="7">
         <v>1</v>
       </c>
-      <c r="P268" s="7">
+      <c r="P268" s="7"/>
+      <c r="Q268" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>39132</v>
       </c>
@@ -19267,11 +19733,12 @@
       <c r="O269" s="7">
         <v>1</v>
       </c>
-      <c r="P269" s="7">
+      <c r="P269" s="7"/>
+      <c r="Q269" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>39133</v>
       </c>
@@ -19297,11 +19764,12 @@
       <c r="O270" s="7">
         <v>1</v>
       </c>
-      <c r="P270" s="7">
+      <c r="P270" s="7"/>
+      <c r="Q270" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>39134</v>
       </c>
@@ -19327,11 +19795,12 @@
       <c r="O271" s="7">
         <v>1</v>
       </c>
-      <c r="P271" s="7">
+      <c r="P271" s="7"/>
+      <c r="Q271" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>39135</v>
       </c>
@@ -19357,11 +19826,12 @@
       <c r="O272" s="7">
         <v>1</v>
       </c>
-      <c r="P272" s="7">
+      <c r="P272" s="7"/>
+      <c r="Q272" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>39136</v>
       </c>
@@ -19387,11 +19857,12 @@
       <c r="O273" s="7">
         <v>1</v>
       </c>
-      <c r="P273" s="7">
+      <c r="P273" s="7"/>
+      <c r="Q273" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>39137</v>
       </c>
@@ -19417,11 +19888,12 @@
       <c r="O274" s="7">
         <v>1</v>
       </c>
-      <c r="P274" s="7">
+      <c r="P274" s="7"/>
+      <c r="Q274" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>39138</v>
       </c>
@@ -19447,11 +19919,12 @@
       <c r="O275" s="7">
         <v>1</v>
       </c>
-      <c r="P275" s="7">
+      <c r="P275" s="7"/>
+      <c r="Q275" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>39139</v>
       </c>
@@ -19477,11 +19950,12 @@
       <c r="O276" s="7">
         <v>1</v>
       </c>
-      <c r="P276" s="7">
+      <c r="P276" s="7"/>
+      <c r="Q276" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>39140</v>
       </c>
@@ -19507,11 +19981,12 @@
       <c r="O277" s="7">
         <v>1</v>
       </c>
-      <c r="P277" s="7">
+      <c r="P277" s="7"/>
+      <c r="Q277" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>39151</v>
       </c>
@@ -19537,11 +20012,12 @@
       <c r="O278" s="7">
         <v>1</v>
       </c>
-      <c r="P278" s="7">
+      <c r="P278" s="7"/>
+      <c r="Q278" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>39156</v>
       </c>
@@ -19567,11 +20043,12 @@
       <c r="O279" s="7">
         <v>1</v>
       </c>
-      <c r="P279" s="7">
+      <c r="P279" s="7"/>
+      <c r="Q279" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>39157</v>
       </c>
@@ -19597,11 +20074,12 @@
       <c r="O280" s="7">
         <v>1</v>
       </c>
-      <c r="P280" s="7">
+      <c r="P280" s="7"/>
+      <c r="Q280" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>39158</v>
       </c>
@@ -19627,11 +20105,12 @@
       <c r="O281" s="7">
         <v>1</v>
       </c>
-      <c r="P281" s="7">
+      <c r="P281" s="7"/>
+      <c r="Q281" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>39159</v>
       </c>
@@ -19657,11 +20136,12 @@
       <c r="O282" s="7">
         <v>1</v>
       </c>
-      <c r="P282" s="7">
+      <c r="P282" s="7"/>
+      <c r="Q282" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>42</v>
       </c>
@@ -19687,11 +20167,12 @@
       <c r="O283" s="7">
         <v>1</v>
       </c>
-      <c r="P283" s="7">
+      <c r="P283" s="7"/>
+      <c r="Q283" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>43</v>
       </c>
@@ -19717,11 +20198,12 @@
       <c r="O284" s="7">
         <v>1</v>
       </c>
-      <c r="P284" s="7">
+      <c r="P284" s="7"/>
+      <c r="Q284" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>44</v>
       </c>
@@ -19747,11 +20229,12 @@
       <c r="O285" s="7">
         <v>1</v>
       </c>
-      <c r="P285" s="7">
+      <c r="P285" s="7"/>
+      <c r="Q285" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>45</v>
       </c>
@@ -19777,11 +20260,12 @@
       <c r="O286" s="7">
         <v>1</v>
       </c>
-      <c r="P286" s="7">
+      <c r="P286" s="7"/>
+      <c r="Q286" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>46</v>
       </c>
@@ -19807,11 +20291,12 @@
       <c r="O287" s="7">
         <v>1</v>
       </c>
-      <c r="P287" s="7">
+      <c r="P287" s="7"/>
+      <c r="Q287" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>47</v>
       </c>
@@ -19837,11 +20322,12 @@
       <c r="O288" s="7">
         <v>1</v>
       </c>
-      <c r="P288" s="7">
+      <c r="P288" s="7"/>
+      <c r="Q288" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>48</v>
       </c>
@@ -19867,11 +20353,12 @@
       <c r="O289" s="7">
         <v>1</v>
       </c>
-      <c r="P289" s="7">
+      <c r="P289" s="7"/>
+      <c r="Q289" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>49</v>
       </c>
@@ -19897,11 +20384,12 @@
       <c r="O290" s="7">
         <v>1</v>
       </c>
-      <c r="P290" s="7">
+      <c r="P290" s="7"/>
+      <c r="Q290" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>50</v>
       </c>
@@ -19927,11 +20415,12 @@
       <c r="O291" s="7">
         <v>1</v>
       </c>
-      <c r="P291" s="7">
+      <c r="P291" s="7"/>
+      <c r="Q291" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>51</v>
       </c>
@@ -19957,11 +20446,12 @@
       <c r="O292" s="7">
         <v>1</v>
       </c>
-      <c r="P292" s="7">
+      <c r="P292" s="7"/>
+      <c r="Q292" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>52</v>
       </c>
@@ -19987,11 +20477,12 @@
       <c r="O293" s="7">
         <v>1</v>
       </c>
-      <c r="P293" s="7">
+      <c r="P293" s="7"/>
+      <c r="Q293" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>40716</v>
       </c>
@@ -20015,15 +20506,16 @@
         <v>1</v>
       </c>
       <c r="O294" s="7"/>
-      <c r="P294" s="7">
+      <c r="P294" s="7"/>
+      <c r="Q294" s="7">
         <v>2</v>
       </c>
-      <c r="R294" t="str">
-        <f>VLOOKUP($E294&amp;"."&amp;M$1,S:V,4,FALSE)</f>
+      <c r="S294" t="str">
+        <f>VLOOKUP($E294&amp;"."&amp;M$1,T:W,4,FALSE)</f>
         <v>Q18.</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>46688</v>
       </c>
@@ -20047,11 +20539,12 @@
         <v>1</v>
       </c>
       <c r="O295" s="7"/>
-      <c r="P295" s="7">
+      <c r="P295" s="7"/>
+      <c r="Q295" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>46265</v>
       </c>
@@ -20075,11 +20568,12 @@
         <v>1</v>
       </c>
       <c r="O296" s="7"/>
-      <c r="P296" s="7">
+      <c r="P296" s="7"/>
+      <c r="Q296" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>46266</v>
       </c>
@@ -20103,11 +20597,12 @@
         <v>1</v>
       </c>
       <c r="O297" s="7"/>
-      <c r="P297" s="7">
+      <c r="P297" s="7"/>
+      <c r="Q297" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>46267</v>
       </c>
@@ -20131,11 +20626,12 @@
         <v>1</v>
       </c>
       <c r="O298" s="7"/>
-      <c r="P298" s="7">
+      <c r="P298" s="7"/>
+      <c r="Q298" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>46268</v>
       </c>
@@ -20159,11 +20655,12 @@
         <v>1</v>
       </c>
       <c r="O299" s="7"/>
-      <c r="P299" s="7">
+      <c r="P299" s="7"/>
+      <c r="Q299" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>46269</v>
       </c>
@@ -20187,11 +20684,12 @@
         <v>1</v>
       </c>
       <c r="O300" s="7"/>
-      <c r="P300" s="7">
+      <c r="P300" s="7"/>
+      <c r="Q300" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>46270</v>
       </c>
@@ -20215,11 +20713,12 @@
         <v>1</v>
       </c>
       <c r="O301" s="7"/>
-      <c r="P301" s="7">
+      <c r="P301" s="7"/>
+      <c r="Q301" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>46271</v>
       </c>
@@ -20243,11 +20742,12 @@
         <v>1</v>
       </c>
       <c r="O302" s="7"/>
-      <c r="P302" s="7">
+      <c r="P302" s="7"/>
+      <c r="Q302" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>46272</v>
       </c>
@@ -20271,11 +20771,12 @@
         <v>1</v>
       </c>
       <c r="O303" s="7"/>
-      <c r="P303" s="7">
+      <c r="P303" s="7"/>
+      <c r="Q303" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>46273</v>
       </c>
@@ -20299,11 +20800,12 @@
         <v>1</v>
       </c>
       <c r="O304" s="7"/>
-      <c r="P304" s="7">
+      <c r="P304" s="7"/>
+      <c r="Q304" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>46274</v>
       </c>
@@ -20327,11 +20829,12 @@
         <v>1</v>
       </c>
       <c r="O305" s="7"/>
-      <c r="P305" s="7">
+      <c r="P305" s="7"/>
+      <c r="Q305" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>46275</v>
       </c>
@@ -20355,11 +20858,12 @@
         <v>1</v>
       </c>
       <c r="O306" s="7"/>
-      <c r="P306" s="7">
+      <c r="P306" s="7"/>
+      <c r="Q306" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>46276</v>
       </c>
@@ -20383,11 +20887,12 @@
         <v>1</v>
       </c>
       <c r="O307" s="7"/>
-      <c r="P307" s="7">
+      <c r="P307" s="7"/>
+      <c r="Q307" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>46277</v>
       </c>
@@ -20411,11 +20916,12 @@
         <v>1</v>
       </c>
       <c r="O308" s="7"/>
-      <c r="P308" s="7">
+      <c r="P308" s="7"/>
+      <c r="Q308" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>46278</v>
       </c>
@@ -20439,11 +20945,12 @@
         <v>1</v>
       </c>
       <c r="O309" s="7"/>
-      <c r="P309" s="7">
+      <c r="P309" s="7"/>
+      <c r="Q309" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>46279</v>
       </c>
@@ -20465,15 +20972,16 @@
         <v>1</v>
       </c>
       <c r="O310" s="7"/>
-      <c r="P310" s="7">
-        <v>1</v>
-      </c>
-      <c r="R310" t="str">
-        <f>VLOOKUP($E310&amp;"."&amp;N$1,S:V,4,FALSE)</f>
+      <c r="P310" s="7"/>
+      <c r="Q310" s="7">
+        <v>1</v>
+      </c>
+      <c r="S310" t="str">
+        <f>VLOOKUP($E310&amp;"."&amp;N$1,T:W,4,FALSE)</f>
         <v>Q14.</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>46280</v>
       </c>
@@ -20495,11 +21003,12 @@
         <v>1</v>
       </c>
       <c r="O311" s="7"/>
-      <c r="P311" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P311" s="7"/>
+      <c r="Q311" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>46281</v>
       </c>
@@ -20521,11 +21030,12 @@
         <v>1</v>
       </c>
       <c r="O312" s="7"/>
-      <c r="P312" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P312" s="7"/>
+      <c r="Q312" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>46282</v>
       </c>
@@ -20547,11 +21057,12 @@
         <v>1</v>
       </c>
       <c r="O313" s="7"/>
-      <c r="P313" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P313" s="7"/>
+      <c r="Q313" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>46283</v>
       </c>
@@ -20573,11 +21084,12 @@
         <v>1</v>
       </c>
       <c r="O314" s="7"/>
-      <c r="P314" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P314" s="7"/>
+      <c r="Q314" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>46284</v>
       </c>
@@ -20599,11 +21111,12 @@
         <v>1</v>
       </c>
       <c r="O315" s="7"/>
-      <c r="P315" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P315" s="7"/>
+      <c r="Q315" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>46285</v>
       </c>
@@ -20625,11 +21138,12 @@
         <v>1</v>
       </c>
       <c r="O316" s="7"/>
-      <c r="P316" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P316" s="7"/>
+      <c r="Q316" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>46286</v>
       </c>
@@ -20651,11 +21165,12 @@
         <v>1</v>
       </c>
       <c r="O317" s="7"/>
-      <c r="P317" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P317" s="7"/>
+      <c r="Q317" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>46287</v>
       </c>
@@ -20677,11 +21192,12 @@
         <v>1</v>
       </c>
       <c r="O318" s="7"/>
-      <c r="P318" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P318" s="7"/>
+      <c r="Q318" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>46288</v>
       </c>
@@ -20703,11 +21219,12 @@
         <v>1</v>
       </c>
       <c r="O319" s="7"/>
-      <c r="P319" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P319" s="7"/>
+      <c r="Q319" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>46289</v>
       </c>
@@ -20729,11 +21246,12 @@
         <v>1</v>
       </c>
       <c r="O320" s="13"/>
-      <c r="P320" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P320" s="13"/>
+      <c r="Q320" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>46290</v>
       </c>
@@ -20759,11 +21277,12 @@
       <c r="M321" s="7"/>
       <c r="N321" s="7"/>
       <c r="O321" s="7"/>
-      <c r="P321" s="7">
+      <c r="P321" s="7"/>
+      <c r="Q321" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>46291</v>
       </c>
@@ -20803,11 +21322,12 @@
       <c r="O322" s="9">
         <v>48</v>
       </c>
-      <c r="P322" s="9">
+      <c r="P322" s="9"/>
+      <c r="Q322" s="9">
         <v>556</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>46292</v>
       </c>
@@ -20815,7 +21335,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>46293</v>
       </c>
@@ -20823,7 +21343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>46294</v>
       </c>
@@ -20831,7 +21351,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>46295</v>
       </c>
@@ -20839,7 +21359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>46296</v>
       </c>
@@ -20847,7 +21367,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>46297</v>
       </c>
@@ -20855,7 +21375,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>46298</v>
       </c>
@@ -20863,7 +21383,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>46299</v>
       </c>
@@ -20871,7 +21391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>46300</v>
       </c>
@@ -20879,7 +21399,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>46301</v>
       </c>
@@ -20887,7 +21407,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>46302</v>
       </c>
@@ -20895,7 +21415,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>46303</v>
       </c>
@@ -20903,7 +21423,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>46304</v>
       </c>
@@ -20911,7 +21431,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>46305</v>
       </c>
@@ -22711,7 +23231,7 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
